--- a/bot/data/results.xlsx
+++ b/bot/data/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programacion\OneDrive\Escritorio\Baloto Prediction\bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F60478-CF17-46B8-8DBD-567A020A348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0AE73E-3C87-4BCD-8221-6C3AAE7CA4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_2025" localSheetId="0">Hoja1!$A$2:$B$1906</definedName>
+    <definedName name="_2025" localSheetId="0">Hoja1!$A$8:$B$1906</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$247</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="9">
   <si>
     <t>fecha</t>
   </si>
@@ -399,19 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -444,19 +447,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>46022</v>
+        <v>46036</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>37</v>
@@ -464,343 +467,343 @@
       <c r="G2">
         <v>40</v>
       </c>
-      <c r="H2" s="2">
-        <v>8</v>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>46020</v>
+        <v>46034</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>46018</v>
+        <v>46032</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>41</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>35</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>46013</v>
+        <v>46027</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>46011</v>
+        <v>46025</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>42</v>
+      </c>
+      <c r="H7">
         <v>5</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>46008</v>
+        <v>46022</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>46006</v>
+        <v>46020</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9">
         <v>36</v>
       </c>
-      <c r="F9">
-        <v>38</v>
-      </c>
       <c r="G9">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="H9" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>46004</v>
+        <v>46018</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>46001</v>
+        <v>46015</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45999</v>
+        <v>46013</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45997</v>
+        <v>46011</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45994</v>
+        <v>46008</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45992</v>
+        <v>46006</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -808,163 +811,163 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45990</v>
+        <v>46004</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
         <v>28</v>
       </c>
-      <c r="F16">
-        <v>32</v>
-      </c>
-      <c r="G16">
-        <v>43</v>
-      </c>
       <c r="H16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45987</v>
+        <v>46001</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45985</v>
+        <v>45999</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>37</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45983</v>
+        <v>45997</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G19">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45980</v>
+        <v>45994</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45978</v>
+        <v>45992</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45976</v>
+        <v>45990</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -973,16 +976,16 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -990,319 +993,319 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45973</v>
+        <v>45987</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45971</v>
+        <v>45985</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45969</v>
+        <v>45983</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45966</v>
+        <v>45980</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G27">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29">
         <v>14</v>
-      </c>
-      <c r="E29">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <v>29</v>
-      </c>
-      <c r="H29">
-        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45955</v>
+        <v>45969</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
         <v>18</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>21</v>
       </c>
-      <c r="F31">
-        <v>32</v>
-      </c>
       <c r="G31">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45952</v>
+        <v>45966</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
         <v>3</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>14</v>
-      </c>
-      <c r="F32">
-        <v>19</v>
-      </c>
-      <c r="G32">
-        <v>26</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45950</v>
+        <v>45964</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>9</v>
       </c>
-      <c r="D33">
-        <v>11</v>
-      </c>
       <c r="E33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45948</v>
+        <v>45962</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F34">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45945</v>
+        <v>45959</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1311,76 +1314,76 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35">
         <v>25</v>
       </c>
-      <c r="F35">
-        <v>37</v>
-      </c>
       <c r="G35">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45943</v>
+        <v>45957</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45941</v>
+        <v>45955</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37">
         <v>14</v>
-      </c>
-      <c r="F37">
-        <v>28</v>
-      </c>
-      <c r="G37">
-        <v>38</v>
-      </c>
-      <c r="H37">
-        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45938</v>
+        <v>45952</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1389,76 +1392,76 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G38">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45936</v>
+        <v>45950</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G39">
         <v>29</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45934</v>
+        <v>45948</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45931</v>
+        <v>45945</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1467,388 +1470,388 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45929</v>
+        <v>45943</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
         <v>34</v>
       </c>
-      <c r="G42">
-        <v>35</v>
-      </c>
       <c r="H42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45927</v>
+        <v>45941</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>13</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <v>38</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45924</v>
+        <v>45938</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G44">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45922</v>
+        <v>45936</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G45">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45920</v>
+        <v>45934</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45917</v>
+        <v>45931</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>39</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45915</v>
+        <v>45929</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>35</v>
+      </c>
+      <c r="H48">
         <v>10</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
-      <c r="F48">
-        <v>12</v>
-      </c>
-      <c r="G48">
-        <v>19</v>
-      </c>
-      <c r="H48">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45913</v>
+        <v>45927</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F49">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45910</v>
+        <v>45924</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45908</v>
+        <v>45922</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G51">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45906</v>
+        <v>45920</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>16</v>
       </c>
       <c r="F52">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>40</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45899</v>
+        <v>45913</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>12</v>
       </c>
       <c r="F55">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45896</v>
+        <v>45910</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1857,206 +1860,206 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F56">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G56">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45894</v>
+        <v>45908</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F57">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45892</v>
+        <v>45906</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G58">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45889</v>
+        <v>45903</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F59">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G59">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45887</v>
+        <v>45901</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F60">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G60">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45885</v>
+        <v>45899</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
         <v>12</v>
       </c>
-      <c r="D61">
+      <c r="F61">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>42</v>
+      </c>
+      <c r="H61">
         <v>13</v>
-      </c>
-      <c r="E61">
-        <v>33</v>
-      </c>
-      <c r="F61">
-        <v>37</v>
-      </c>
-      <c r="G61">
-        <v>38</v>
-      </c>
-      <c r="H61">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>45882</v>
+        <v>45896</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G62">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>45880</v>
+        <v>45894</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F63">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G63">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>45878</v>
+        <v>45892</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2065,432 +2068,432 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>45875</v>
+        <v>45889</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F65">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>45873</v>
+        <v>45887</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F66">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G66">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45871</v>
+        <v>45885</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
         <v>13</v>
       </c>
-      <c r="D67">
-        <v>22</v>
-      </c>
       <c r="E67">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F67">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>45868</v>
+        <v>45882</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F68">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>45866</v>
+        <v>45880</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>32</v>
+      </c>
+      <c r="G69">
         <v>33</v>
       </c>
-      <c r="F69">
-        <v>34</v>
-      </c>
-      <c r="G69">
-        <v>41</v>
-      </c>
       <c r="H69">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45864</v>
+        <v>45878</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E70">
+        <v>27</v>
+      </c>
+      <c r="F70">
         <v>29</v>
       </c>
-      <c r="F70">
-        <v>34</v>
-      </c>
       <c r="G70">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>45861</v>
+        <v>45875</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F71">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G71">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>45859</v>
+        <v>45873</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F72">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>45857</v>
+        <v>45871</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F73">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G73">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45854</v>
+        <v>45868</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F74">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G74">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>45852</v>
+        <v>45866</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>45850</v>
+        <v>45864</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F76">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>43</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>45847</v>
+        <v>45861</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E77">
+        <v>19</v>
+      </c>
+      <c r="F77">
         <v>25</v>
       </c>
-      <c r="F77">
-        <v>29</v>
-      </c>
       <c r="G77">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>45845</v>
+        <v>45859</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F78">
+        <v>34</v>
+      </c>
+      <c r="G78">
         <v>41</v>
       </c>
-      <c r="G78">
-        <v>42</v>
-      </c>
       <c r="H78">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>45843</v>
+        <v>45857</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>17</v>
       </c>
       <c r="E79">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F79">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G79">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>45840</v>
+        <v>45854</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G80">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>13</v>
@@ -2498,149 +2501,149 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>45838</v>
+        <v>45852</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F81">
+        <v>35</v>
+      </c>
+      <c r="G81">
         <v>36</v>
       </c>
-      <c r="G81">
-        <v>41</v>
-      </c>
       <c r="H81">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>17</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
+      </c>
+      <c r="G82">
+        <v>43</v>
+      </c>
+      <c r="H82">
         <v>15</v>
-      </c>
-      <c r="E82">
-        <v>18</v>
-      </c>
-      <c r="F82">
-        <v>31</v>
-      </c>
-      <c r="G82">
-        <v>35</v>
-      </c>
-      <c r="H82">
-        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F83">
         <v>29</v>
       </c>
       <c r="G83">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
         <v>24</v>
       </c>
-      <c r="E84">
-        <v>28</v>
-      </c>
       <c r="F84">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G84">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H84">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>45829</v>
+        <v>45843</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>17</v>
       </c>
       <c r="E85">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F85">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G85">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>45826</v>
+        <v>45840</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F86">
         <v>23</v>
@@ -2649,12 +2652,12 @@
         <v>42</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>45824</v>
+        <v>45838</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2663,24 +2666,24 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F87">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G87">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>45822</v>
+        <v>45836</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2689,128 +2692,128 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F88">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G88">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>45819</v>
+        <v>45833</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>45817</v>
+        <v>45831</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E90">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F90">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G90">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F91">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G91">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F92">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G92">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>45810</v>
+        <v>45824</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2819,50 +2822,50 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G93">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>45808</v>
+        <v>45822</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F94">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G94">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H94">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>45805</v>
+        <v>45819</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2871,128 +2874,128 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F95">
+        <v>21</v>
+      </c>
+      <c r="G95">
         <v>33</v>
       </c>
-      <c r="G95">
-        <v>37</v>
-      </c>
       <c r="H95">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>45801</v>
+        <v>45817</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F96">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G96">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>45798</v>
+        <v>45815</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>45794</v>
+        <v>45812</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D98">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>41</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>45791</v>
+        <v>45810</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
         <v>31</v>
       </c>
-      <c r="E99">
-        <v>40</v>
-      </c>
-      <c r="F99">
-        <v>41</v>
-      </c>
       <c r="G99">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>45787</v>
+        <v>45808</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -3001,180 +3004,180 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F100">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G100">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>45784</v>
+        <v>45805</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>9</v>
       </c>
       <c r="E101">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G101">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>45780</v>
+        <v>45801</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
         <v>10</v>
       </c>
-      <c r="D102">
-        <v>12</v>
-      </c>
       <c r="E102">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F102">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G102">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>45777</v>
+        <v>45798</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F103">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G103">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>45773</v>
+        <v>45794</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F104">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>45770</v>
+        <v>45791</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E105">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F105">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G105">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>45766</v>
+        <v>45787</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F106">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G106">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3183,76 +3186,76 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F107">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G107">
         <v>32</v>
       </c>
       <c r="H107">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>45759</v>
+        <v>45780</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F108">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G108">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>45756</v>
+        <v>45777</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E109">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F109">
         <v>19</v>
       </c>
       <c r="G109">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>45752</v>
+        <v>45773</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3261,120 +3264,120 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G110">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>45749</v>
+        <v>45770</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F111">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G111">
         <v>43</v>
       </c>
       <c r="H111">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>45745</v>
+        <v>45766</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F112">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>45742</v>
+        <v>45763</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>31</v>
+      </c>
+      <c r="G113">
+        <v>32</v>
+      </c>
+      <c r="H113">
         <v>9</v>
-      </c>
-      <c r="E113">
-        <v>21</v>
-      </c>
-      <c r="F113">
-        <v>27</v>
-      </c>
-      <c r="G113">
-        <v>39</v>
-      </c>
-      <c r="H113">
-        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>45738</v>
+        <v>45759</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F114">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G114">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -3382,363 +3385,363 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D115">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F115">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G115">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>45731</v>
+        <v>45752</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F116">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H116">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>45728</v>
+        <v>45749</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F117">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G117">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>45724</v>
+        <v>45745</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>27</v>
+      </c>
+      <c r="F118">
+        <v>36</v>
+      </c>
+      <c r="G118">
+        <v>37</v>
+      </c>
+      <c r="H118">
         <v>1</v>
-      </c>
-      <c r="D118">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>33</v>
-      </c>
-      <c r="F118">
-        <v>42</v>
-      </c>
-      <c r="G118">
-        <v>43</v>
-      </c>
-      <c r="H118">
-        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>45721</v>
+        <v>45742</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F119">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G119">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>45717</v>
+        <v>45738</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F120">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G120">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>45714</v>
+        <v>45735</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F121">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>43</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>45710</v>
+        <v>45731</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D122">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E122">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F122">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G122">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>45707</v>
+        <v>45728</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D123">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F123">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G123">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>45703</v>
+        <v>45724</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E124">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F124">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G124">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>45700</v>
+        <v>45721</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F125">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G125">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>45696</v>
+        <v>45717</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F126">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G126">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>45693</v>
+        <v>45714</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F127">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G127">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>45689</v>
+        <v>45710</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F128">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G128">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>12</v>
@@ -3746,137 +3749,137 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>45686</v>
+        <v>45707</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E129">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F129">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>38</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>45682</v>
+        <v>45703</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F130">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G130">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>45679</v>
+        <v>45700</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D131">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>39</v>
+      </c>
+      <c r="G131">
+        <v>41</v>
+      </c>
+      <c r="H131">
         <v>15</v>
-      </c>
-      <c r="E131">
-        <v>28</v>
-      </c>
-      <c r="F131">
-        <v>34</v>
-      </c>
-      <c r="G131">
-        <v>37</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>45675</v>
+        <v>45696</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>39</v>
+      </c>
+      <c r="G132">
+        <v>43</v>
+      </c>
+      <c r="H132">
         <v>14</v>
-      </c>
-      <c r="D132">
-        <v>19</v>
-      </c>
-      <c r="E132">
-        <v>30</v>
-      </c>
-      <c r="F132">
-        <v>38</v>
-      </c>
-      <c r="G132">
-        <v>41</v>
-      </c>
-      <c r="H132">
-        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>45672</v>
+        <v>45693</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E133">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F133">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G133">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>45668</v>
+        <v>45689</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3885,100 +3888,3600 @@
         <v>2</v>
       </c>
       <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
         <v>28</v>
       </c>
-      <c r="E134">
-        <v>31</v>
-      </c>
-      <c r="F134">
-        <v>32</v>
-      </c>
       <c r="G134">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>45665</v>
+        <v>45686</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D135">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E135">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F135">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>45661</v>
+        <v>45682</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E136">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F136">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G136">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
+        <v>45679</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>28</v>
+      </c>
+      <c r="F137">
+        <v>34</v>
+      </c>
+      <c r="G137">
+        <v>37</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>45675</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>14</v>
+      </c>
+      <c r="D138">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>38</v>
+      </c>
+      <c r="G138">
+        <v>41</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>45672</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+      <c r="D139">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>32</v>
+      </c>
+      <c r="F139">
+        <v>33</v>
+      </c>
+      <c r="G139">
+        <v>43</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>45668</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>28</v>
+      </c>
+      <c r="E140">
+        <v>31</v>
+      </c>
+      <c r="F140">
+        <v>32</v>
+      </c>
+      <c r="G140">
+        <v>34</v>
+      </c>
+      <c r="H140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>45665</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>24</v>
+      </c>
+      <c r="E141">
+        <v>27</v>
+      </c>
+      <c r="F141">
+        <v>37</v>
+      </c>
+      <c r="G141">
+        <v>43</v>
+      </c>
+      <c r="H141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>45661</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142">
+        <v>26</v>
+      </c>
+      <c r="H142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>45658</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
         <v>17</v>
       </c>
-      <c r="D137">
+      <c r="D143">
         <v>28</v>
       </c>
-      <c r="E137">
+      <c r="E143">
         <v>33</v>
       </c>
-      <c r="F137">
+      <c r="F143">
         <v>39</v>
       </c>
-      <c r="G137">
+      <c r="G143">
         <v>43</v>
       </c>
-      <c r="H137">
+      <c r="H143">
         <v>6</v>
       </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>45654</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>12</v>
+      </c>
+      <c r="F144">
+        <v>14</v>
+      </c>
+      <c r="G144">
+        <v>34</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>45651</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>8</v>
+      </c>
+      <c r="E145">
+        <v>22</v>
+      </c>
+      <c r="F145">
+        <v>26</v>
+      </c>
+      <c r="G145">
+        <v>38</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>45647</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>16</v>
+      </c>
+      <c r="F146">
+        <v>21</v>
+      </c>
+      <c r="G146">
+        <v>41</v>
+      </c>
+      <c r="H146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>45644</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>28</v>
+      </c>
+      <c r="F147">
+        <v>36</v>
+      </c>
+      <c r="G147">
+        <v>43</v>
+      </c>
+      <c r="H147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>45640</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148">
+        <v>22</v>
+      </c>
+      <c r="E148">
+        <v>26</v>
+      </c>
+      <c r="F148">
+        <v>32</v>
+      </c>
+      <c r="G148">
+        <v>39</v>
+      </c>
+      <c r="H148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>45637</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>13</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149">
+        <v>43</v>
+      </c>
+      <c r="H149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>45633</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+      <c r="E150">
+        <v>34</v>
+      </c>
+      <c r="F150">
+        <v>36</v>
+      </c>
+      <c r="G150">
+        <v>37</v>
+      </c>
+      <c r="H150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>45630</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151">
+        <v>14</v>
+      </c>
+      <c r="E151">
+        <v>31</v>
+      </c>
+      <c r="F151">
+        <v>39</v>
+      </c>
+      <c r="G151">
+        <v>41</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>22</v>
+      </c>
+      <c r="F152">
+        <v>23</v>
+      </c>
+      <c r="G152">
+        <v>34</v>
+      </c>
+      <c r="H152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>45623</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>15</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153">
+        <v>24</v>
+      </c>
+      <c r="H153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>45619</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
+      </c>
+      <c r="F154">
+        <v>25</v>
+      </c>
+      <c r="G154">
+        <v>36</v>
+      </c>
+      <c r="H154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>45616</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>22</v>
+      </c>
+      <c r="F155">
+        <v>36</v>
+      </c>
+      <c r="G155">
+        <v>38</v>
+      </c>
+      <c r="H155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>45612</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>21</v>
+      </c>
+      <c r="F156">
+        <v>35</v>
+      </c>
+      <c r="G156">
+        <v>41</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>45609</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+      <c r="G157">
+        <v>15</v>
+      </c>
+      <c r="H157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>45605</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>28</v>
+      </c>
+      <c r="E158">
+        <v>29</v>
+      </c>
+      <c r="F158">
+        <v>31</v>
+      </c>
+      <c r="G158">
+        <v>41</v>
+      </c>
+      <c r="H158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>45602</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>20</v>
+      </c>
+      <c r="F159">
+        <v>30</v>
+      </c>
+      <c r="G159">
+        <v>37</v>
+      </c>
+      <c r="H159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>45598</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>29</v>
+      </c>
+      <c r="G160">
+        <v>39</v>
+      </c>
+      <c r="H160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>45595</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>14</v>
+      </c>
+      <c r="E161">
+        <v>15</v>
+      </c>
+      <c r="F161">
+        <v>29</v>
+      </c>
+      <c r="G161">
+        <v>42</v>
+      </c>
+      <c r="H161">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>45591</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162">
+        <v>43</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>45588</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="F163">
+        <v>34</v>
+      </c>
+      <c r="G163">
+        <v>43</v>
+      </c>
+      <c r="H163">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>45584</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>18</v>
+      </c>
+      <c r="D164">
+        <v>19</v>
+      </c>
+      <c r="E164">
+        <v>26</v>
+      </c>
+      <c r="F164">
+        <v>29</v>
+      </c>
+      <c r="G164">
+        <v>40</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>45581</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>14</v>
+      </c>
+      <c r="E165">
+        <v>19</v>
+      </c>
+      <c r="F165">
+        <v>24</v>
+      </c>
+      <c r="G165">
+        <v>39</v>
+      </c>
+      <c r="H165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>45577</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>21</v>
+      </c>
+      <c r="F166">
+        <v>39</v>
+      </c>
+      <c r="G166">
+        <v>41</v>
+      </c>
+      <c r="H166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>45574</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>21</v>
+      </c>
+      <c r="E167">
+        <v>36</v>
+      </c>
+      <c r="F167">
+        <v>37</v>
+      </c>
+      <c r="G167">
+        <v>41</v>
+      </c>
+      <c r="H167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>45570</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>17</v>
+      </c>
+      <c r="F168">
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>42</v>
+      </c>
+      <c r="H168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>45567</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>16</v>
+      </c>
+      <c r="E169">
+        <v>17</v>
+      </c>
+      <c r="F169">
+        <v>27</v>
+      </c>
+      <c r="G169">
+        <v>36</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>45563</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>12</v>
+      </c>
+      <c r="E170">
+        <v>15</v>
+      </c>
+      <c r="F170">
+        <v>35</v>
+      </c>
+      <c r="G170">
+        <v>37</v>
+      </c>
+      <c r="H170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>45560</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>11</v>
+      </c>
+      <c r="F171">
+        <v>33</v>
+      </c>
+      <c r="G171">
+        <v>35</v>
+      </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>45556</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>16</v>
+      </c>
+      <c r="E172">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172">
+        <v>42</v>
+      </c>
+      <c r="H172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>45553</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>14</v>
+      </c>
+      <c r="D173">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>22</v>
+      </c>
+      <c r="F173">
+        <v>33</v>
+      </c>
+      <c r="G173">
+        <v>41</v>
+      </c>
+      <c r="H173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>45549</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>31</v>
+      </c>
+      <c r="D174">
+        <v>32</v>
+      </c>
+      <c r="E174">
+        <v>39</v>
+      </c>
+      <c r="F174">
+        <v>41</v>
+      </c>
+      <c r="G174">
+        <v>43</v>
+      </c>
+      <c r="H174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>45546</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>24</v>
+      </c>
+      <c r="F175">
+        <v>25</v>
+      </c>
+      <c r="G175">
+        <v>28</v>
+      </c>
+      <c r="H175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>45542</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>19</v>
+      </c>
+      <c r="E176">
+        <v>23</v>
+      </c>
+      <c r="F176">
+        <v>27</v>
+      </c>
+      <c r="G176">
+        <v>35</v>
+      </c>
+      <c r="H176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>45539</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>12</v>
+      </c>
+      <c r="D177">
+        <v>17</v>
+      </c>
+      <c r="E177">
+        <v>22</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177">
+        <v>43</v>
+      </c>
+      <c r="H177">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
+      <c r="E178">
+        <v>9</v>
+      </c>
+      <c r="F178">
+        <v>22</v>
+      </c>
+      <c r="G178">
+        <v>34</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>45532</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179">
+        <v>11</v>
+      </c>
+      <c r="F179">
+        <v>27</v>
+      </c>
+      <c r="G179">
+        <v>42</v>
+      </c>
+      <c r="H179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>45528</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>21</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <v>39</v>
+      </c>
+      <c r="H180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>45525</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>20</v>
+      </c>
+      <c r="D181">
+        <v>21</v>
+      </c>
+      <c r="E181">
+        <v>23</v>
+      </c>
+      <c r="F181">
+        <v>32</v>
+      </c>
+      <c r="G181">
+        <v>42</v>
+      </c>
+      <c r="H181">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>45521</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>15</v>
+      </c>
+      <c r="F182">
+        <v>33</v>
+      </c>
+      <c r="G182">
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>45518</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>13</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183">
+        <v>27</v>
+      </c>
+      <c r="H183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>45514</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>12</v>
+      </c>
+      <c r="E184">
+        <v>18</v>
+      </c>
+      <c r="F184">
+        <v>26</v>
+      </c>
+      <c r="G184">
+        <v>39</v>
+      </c>
+      <c r="H184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>45511</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>21</v>
+      </c>
+      <c r="E185">
+        <v>36</v>
+      </c>
+      <c r="F185">
+        <v>41</v>
+      </c>
+      <c r="G185">
+        <v>42</v>
+      </c>
+      <c r="H185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>45507</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>21</v>
+      </c>
+      <c r="E186">
+        <v>24</v>
+      </c>
+      <c r="F186">
+        <v>34</v>
+      </c>
+      <c r="G186">
+        <v>43</v>
+      </c>
+      <c r="H186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>24</v>
+      </c>
+      <c r="E187">
+        <v>32</v>
+      </c>
+      <c r="F187">
+        <v>38</v>
+      </c>
+      <c r="G187">
+        <v>42</v>
+      </c>
+      <c r="H187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <v>19</v>
+      </c>
+      <c r="D188">
+        <v>25</v>
+      </c>
+      <c r="E188">
+        <v>32</v>
+      </c>
+      <c r="F188">
+        <v>38</v>
+      </c>
+      <c r="G188">
+        <v>41</v>
+      </c>
+      <c r="H188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>29</v>
+      </c>
+      <c r="E189">
+        <v>31</v>
+      </c>
+      <c r="F189">
+        <v>36</v>
+      </c>
+      <c r="G189">
+        <v>41</v>
+      </c>
+      <c r="H189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
+      </c>
+      <c r="F190">
+        <v>29</v>
+      </c>
+      <c r="G190">
+        <v>43</v>
+      </c>
+      <c r="H190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>16</v>
+      </c>
+      <c r="D191">
+        <v>33</v>
+      </c>
+      <c r="E191">
+        <v>36</v>
+      </c>
+      <c r="F191">
+        <v>39</v>
+      </c>
+      <c r="G191">
+        <v>43</v>
+      </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>25</v>
+      </c>
+      <c r="G192">
+        <v>41</v>
+      </c>
+      <c r="H192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+      <c r="E193">
+        <v>21</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193">
+        <v>36</v>
+      </c>
+      <c r="H193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>14</v>
+      </c>
+      <c r="D194">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>26</v>
+      </c>
+      <c r="F194">
+        <v>32</v>
+      </c>
+      <c r="G194">
+        <v>42</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>9</v>
+      </c>
+      <c r="D195">
+        <v>19</v>
+      </c>
+      <c r="E195">
+        <v>27</v>
+      </c>
+      <c r="F195">
+        <v>32</v>
+      </c>
+      <c r="G195">
+        <v>43</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>21</v>
+      </c>
+      <c r="G196">
+        <v>32</v>
+      </c>
+      <c r="H196">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>13</v>
+      </c>
+      <c r="E197">
+        <v>20</v>
+      </c>
+      <c r="F197">
+        <v>36</v>
+      </c>
+      <c r="G197">
+        <v>43</v>
+      </c>
+      <c r="H197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>21</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198">
+        <v>33</v>
+      </c>
+      <c r="H198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>12</v>
+      </c>
+      <c r="D199">
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>22</v>
+      </c>
+      <c r="F199">
+        <v>23</v>
+      </c>
+      <c r="G199">
+        <v>39</v>
+      </c>
+      <c r="H199">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>18</v>
+      </c>
+      <c r="F200">
+        <v>40</v>
+      </c>
+      <c r="G200">
+        <v>43</v>
+      </c>
+      <c r="H200">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
+      </c>
+      <c r="F201">
+        <v>20</v>
+      </c>
+      <c r="G201">
+        <v>34</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>16</v>
+      </c>
+      <c r="E202">
+        <v>17</v>
+      </c>
+      <c r="F202">
+        <v>29</v>
+      </c>
+      <c r="G202">
+        <v>38</v>
+      </c>
+      <c r="H202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>19</v>
+      </c>
+      <c r="E203">
+        <v>24</v>
+      </c>
+      <c r="F203">
+        <v>38</v>
+      </c>
+      <c r="G203">
+        <v>39</v>
+      </c>
+      <c r="H203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>16</v>
+      </c>
+      <c r="D204">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>26</v>
+      </c>
+      <c r="F204">
+        <v>27</v>
+      </c>
+      <c r="G204">
+        <v>37</v>
+      </c>
+      <c r="H204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205">
+        <v>14</v>
+      </c>
+      <c r="F205">
+        <v>15</v>
+      </c>
+      <c r="G205">
+        <v>19</v>
+      </c>
+      <c r="H205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>45437</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>18</v>
+      </c>
+      <c r="E206">
+        <v>39</v>
+      </c>
+      <c r="F206">
+        <v>40</v>
+      </c>
+      <c r="G206">
+        <v>41</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>45434</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+      <c r="D207">
+        <v>11</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207">
+        <v>33</v>
+      </c>
+      <c r="H207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>45430</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>19</v>
+      </c>
+      <c r="E208">
+        <v>28</v>
+      </c>
+      <c r="F208">
+        <v>35</v>
+      </c>
+      <c r="G208">
+        <v>42</v>
+      </c>
+      <c r="H208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>10</v>
+      </c>
+      <c r="F209">
+        <v>27</v>
+      </c>
+      <c r="G209">
+        <v>41</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>45423</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>16</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+      <c r="G210">
+        <v>39</v>
+      </c>
+      <c r="H210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>45420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>13</v>
+      </c>
+      <c r="D211">
+        <v>16</v>
+      </c>
+      <c r="E211">
+        <v>23</v>
+      </c>
+      <c r="F211">
+        <v>26</v>
+      </c>
+      <c r="G211">
+        <v>30</v>
+      </c>
+      <c r="H211">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>28</v>
+      </c>
+      <c r="F212">
+        <v>30</v>
+      </c>
+      <c r="G212">
+        <v>38</v>
+      </c>
+      <c r="H212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213">
+        <v>23</v>
+      </c>
+      <c r="E213">
+        <v>25</v>
+      </c>
+      <c r="F213">
+        <v>31</v>
+      </c>
+      <c r="G213">
+        <v>36</v>
+      </c>
+      <c r="H213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>45409</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>11</v>
+      </c>
+      <c r="D214">
+        <v>13</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214">
+        <v>23</v>
+      </c>
+      <c r="G214">
+        <v>24</v>
+      </c>
+      <c r="H214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>45406</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>19</v>
+      </c>
+      <c r="D215">
+        <v>20</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
+      </c>
+      <c r="F215">
+        <v>29</v>
+      </c>
+      <c r="G215">
+        <v>43</v>
+      </c>
+      <c r="H215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>45402</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>31</v>
+      </c>
+      <c r="F216">
+        <v>32</v>
+      </c>
+      <c r="G216">
+        <v>35</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>45399</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>25</v>
+      </c>
+      <c r="D217">
+        <v>26</v>
+      </c>
+      <c r="E217">
+        <v>31</v>
+      </c>
+      <c r="F217">
+        <v>37</v>
+      </c>
+      <c r="G217">
+        <v>38</v>
+      </c>
+      <c r="H217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>45395</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>16</v>
+      </c>
+      <c r="E218">
+        <v>31</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218">
+        <v>43</v>
+      </c>
+      <c r="H218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>45392</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>11</v>
+      </c>
+      <c r="F219">
+        <v>12</v>
+      </c>
+      <c r="G219">
+        <v>40</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>45388</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>24</v>
+      </c>
+      <c r="E220">
+        <v>25</v>
+      </c>
+      <c r="F220">
+        <v>26</v>
+      </c>
+      <c r="G220">
+        <v>30</v>
+      </c>
+      <c r="H220">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>14</v>
+      </c>
+      <c r="D221">
+        <v>20</v>
+      </c>
+      <c r="E221">
+        <v>29</v>
+      </c>
+      <c r="F221">
+        <v>37</v>
+      </c>
+      <c r="G221">
+        <v>41</v>
+      </c>
+      <c r="H221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>45381</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>7</v>
+      </c>
+      <c r="D222">
+        <v>21</v>
+      </c>
+      <c r="E222">
+        <v>30</v>
+      </c>
+      <c r="F222">
+        <v>35</v>
+      </c>
+      <c r="G222">
+        <v>36</v>
+      </c>
+      <c r="H222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="E223">
+        <v>8</v>
+      </c>
+      <c r="F223">
+        <v>11</v>
+      </c>
+      <c r="G223">
+        <v>32</v>
+      </c>
+      <c r="H223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>45374</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>9</v>
+      </c>
+      <c r="D224">
+        <v>23</v>
+      </c>
+      <c r="E224">
+        <v>29</v>
+      </c>
+      <c r="F224">
+        <v>32</v>
+      </c>
+      <c r="G224">
+        <v>34</v>
+      </c>
+      <c r="H224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>45371</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>17</v>
+      </c>
+      <c r="D225">
+        <v>22</v>
+      </c>
+      <c r="E225">
+        <v>24</v>
+      </c>
+      <c r="F225">
+        <v>35</v>
+      </c>
+      <c r="G225">
+        <v>40</v>
+      </c>
+      <c r="H225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>45367</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>25</v>
+      </c>
+      <c r="F226">
+        <v>27</v>
+      </c>
+      <c r="G226">
+        <v>32</v>
+      </c>
+      <c r="H226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>45364</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227">
+        <v>24</v>
+      </c>
+      <c r="F227">
+        <v>27</v>
+      </c>
+      <c r="G227">
+        <v>42</v>
+      </c>
+      <c r="H227">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>45360</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+      <c r="D228">
+        <v>14</v>
+      </c>
+      <c r="E228">
+        <v>23</v>
+      </c>
+      <c r="F228">
+        <v>25</v>
+      </c>
+      <c r="G228">
+        <v>42</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>45357</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>19</v>
+      </c>
+      <c r="D229">
+        <v>25</v>
+      </c>
+      <c r="E229">
+        <v>26</v>
+      </c>
+      <c r="F229">
+        <v>39</v>
+      </c>
+      <c r="G229">
+        <v>41</v>
+      </c>
+      <c r="H229">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>45353</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+      <c r="D230">
+        <v>17</v>
+      </c>
+      <c r="E230">
+        <v>26</v>
+      </c>
+      <c r="F230">
+        <v>38</v>
+      </c>
+      <c r="G230">
+        <v>40</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>14</v>
+      </c>
+      <c r="E231">
+        <v>23</v>
+      </c>
+      <c r="F231">
+        <v>34</v>
+      </c>
+      <c r="G231">
+        <v>42</v>
+      </c>
+      <c r="H231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>45346</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>12</v>
+      </c>
+      <c r="D232">
+        <v>22</v>
+      </c>
+      <c r="E232">
+        <v>29</v>
+      </c>
+      <c r="F232">
+        <v>41</v>
+      </c>
+      <c r="G232">
+        <v>42</v>
+      </c>
+      <c r="H232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>45343</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>7</v>
+      </c>
+      <c r="E233">
+        <v>11</v>
+      </c>
+      <c r="F233">
+        <v>18</v>
+      </c>
+      <c r="G233">
+        <v>32</v>
+      </c>
+      <c r="H233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>45339</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>18</v>
+      </c>
+      <c r="D234">
+        <v>21</v>
+      </c>
+      <c r="E234">
+        <v>34</v>
+      </c>
+      <c r="F234">
+        <v>38</v>
+      </c>
+      <c r="G234">
+        <v>43</v>
+      </c>
+      <c r="H234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>45336</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>8</v>
+      </c>
+      <c r="E235">
+        <v>21</v>
+      </c>
+      <c r="F235">
+        <v>27</v>
+      </c>
+      <c r="G235">
+        <v>35</v>
+      </c>
+      <c r="H235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>45332</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>14</v>
+      </c>
+      <c r="E236">
+        <v>31</v>
+      </c>
+      <c r="F236">
+        <v>34</v>
+      </c>
+      <c r="G236">
+        <v>42</v>
+      </c>
+      <c r="H236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>45329</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>11</v>
+      </c>
+      <c r="E237">
+        <v>26</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237">
+        <v>41</v>
+      </c>
+      <c r="H237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>18</v>
+      </c>
+      <c r="D238">
+        <v>20</v>
+      </c>
+      <c r="E238">
+        <v>39</v>
+      </c>
+      <c r="F238">
+        <v>40</v>
+      </c>
+      <c r="G238">
+        <v>43</v>
+      </c>
+      <c r="H238">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>14</v>
+      </c>
+      <c r="E239">
+        <v>20</v>
+      </c>
+      <c r="F239">
+        <v>26</v>
+      </c>
+      <c r="G239">
+        <v>28</v>
+      </c>
+      <c r="H239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>45318</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>14</v>
+      </c>
+      <c r="D240">
+        <v>24</v>
+      </c>
+      <c r="E240">
+        <v>33</v>
+      </c>
+      <c r="F240">
+        <v>35</v>
+      </c>
+      <c r="G240">
+        <v>36</v>
+      </c>
+      <c r="H240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>45315</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>20</v>
+      </c>
+      <c r="E241">
+        <v>21</v>
+      </c>
+      <c r="F241">
+        <v>27</v>
+      </c>
+      <c r="G241">
+        <v>38</v>
+      </c>
+      <c r="H241">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>45311</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242">
+        <v>19</v>
+      </c>
+      <c r="D242">
+        <v>23</v>
+      </c>
+      <c r="E242">
+        <v>32</v>
+      </c>
+      <c r="F242">
+        <v>36</v>
+      </c>
+      <c r="G242">
+        <v>39</v>
+      </c>
+      <c r="H242">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>45308</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243">
+        <v>25</v>
+      </c>
+      <c r="E243">
+        <v>26</v>
+      </c>
+      <c r="F243">
+        <v>27</v>
+      </c>
+      <c r="G243">
+        <v>30</v>
+      </c>
+      <c r="H243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>23</v>
+      </c>
+      <c r="F244">
+        <v>27</v>
+      </c>
+      <c r="G244">
+        <v>39</v>
+      </c>
+      <c r="H244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>45301</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>16</v>
+      </c>
+      <c r="F245">
+        <v>28</v>
+      </c>
+      <c r="G245">
+        <v>43</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>45297</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <v>22</v>
+      </c>
+      <c r="D246">
+        <v>27</v>
+      </c>
+      <c r="E246">
+        <v>37</v>
+      </c>
+      <c r="F246">
+        <v>40</v>
+      </c>
+      <c r="G246">
+        <v>42</v>
+      </c>
+      <c r="H246">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247">
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <v>20</v>
+      </c>
+      <c r="E247">
+        <v>31</v>
+      </c>
+      <c r="F247">
+        <v>36</v>
+      </c>
+      <c r="G247">
+        <v>41</v>
+      </c>
+      <c r="H247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048213" s="3"/>
+    </row>
+    <row r="1048214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048214" s="3"/>
+    </row>
+    <row r="1048215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048215" s="3"/>
+    </row>
+    <row r="1048216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048216" s="3"/>
+    </row>
+    <row r="1048217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048217" s="3"/>
+    </row>
+    <row r="1048218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048218" s="3"/>
+    </row>
+    <row r="1048220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048220" s="3"/>
+    </row>
+    <row r="1048221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048221" s="3"/>
+    </row>
+    <row r="1048223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048223" s="3"/>
+    </row>
+    <row r="1048224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048224" s="3"/>
+    </row>
+    <row r="1048225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048225" s="3"/>
+    </row>
+    <row r="1048227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048227" s="3"/>
+    </row>
+    <row r="1048228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048228" s="3"/>
+    </row>
+    <row r="1048230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048230" s="3"/>
+    </row>
+    <row r="1048231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048231" s="3"/>
+    </row>
+    <row r="1048232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048232" s="3"/>
+    </row>
+    <row r="1048234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048234" s="3"/>
+    </row>
+    <row r="1048235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048235" s="3"/>
+    </row>
+    <row r="1048237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048237" s="3"/>
+    </row>
+    <row r="1048238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048238" s="3"/>
+    </row>
+    <row r="1048239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048239" s="3"/>
+    </row>
+    <row r="1048241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048241" s="3"/>
+    </row>
+    <row r="1048242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048242" s="3"/>
+    </row>
+    <row r="1048244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048244" s="3"/>
+    </row>
+    <row r="1048245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048245" s="3"/>
+    </row>
+    <row r="1048246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048246" s="3"/>
+    </row>
+    <row r="1048248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048248" s="3"/>
+    </row>
+    <row r="1048249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048249" s="3"/>
+    </row>
+    <row r="1048251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048251" s="3"/>
+    </row>
+    <row r="1048252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048252" s="3"/>
+    </row>
+    <row r="1048253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048253" s="3"/>
+    </row>
+    <row r="1048255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048255" s="3"/>
+    </row>
+    <row r="1048256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048256" s="3"/>
+    </row>
+    <row r="1048258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048258" s="3"/>
+    </row>
+    <row r="1048259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048259" s="3"/>
+    </row>
+    <row r="1048260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048260" s="3"/>
+    </row>
+    <row r="1048262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048262" s="3"/>
+    </row>
+    <row r="1048263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048263" s="3"/>
+    </row>
+    <row r="1048265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048265" s="3"/>
+    </row>
+    <row r="1048266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048266" s="3"/>
+    </row>
+    <row r="1048267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048267" s="3"/>
+    </row>
+    <row r="1048269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048269" s="3"/>
+    </row>
+    <row r="1048270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048270" s="3"/>
+    </row>
+    <row r="1048272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048272" s="3"/>
+    </row>
+    <row r="1048273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048273" s="3"/>
+    </row>
+    <row r="1048274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048274" s="3"/>
+    </row>
+    <row r="1048276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048276" s="3"/>
+    </row>
+    <row r="1048277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048277" s="3"/>
+    </row>
+    <row r="1048279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048279" s="3"/>
+    </row>
+    <row r="1048280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048280" s="3"/>
+    </row>
+    <row r="1048281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048281" s="3"/>
+    </row>
+    <row r="1048283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048283" s="3"/>
+    </row>
+    <row r="1048284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048284" s="3"/>
+    </row>
+    <row r="1048286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048286" s="3"/>
+    </row>
+    <row r="1048287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048287" s="3"/>
+    </row>
+    <row r="1048288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048288" s="3"/>
+    </row>
+    <row r="1048290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048290" s="3"/>
+    </row>
+    <row r="1048291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048291" s="3"/>
+    </row>
+    <row r="1048293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048293" s="3"/>
+    </row>
+    <row r="1048294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048294" s="3"/>
+    </row>
+    <row r="1048295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048295" s="3"/>
+    </row>
+    <row r="1048297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048297" s="3"/>
+    </row>
+    <row r="1048298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048298" s="3"/>
+    </row>
+    <row r="1048300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048300" s="3"/>
+    </row>
+    <row r="1048301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048301" s="3"/>
+    </row>
+    <row r="1048302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048302" s="3"/>
+    </row>
+    <row r="1048304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048304" s="3"/>
+    </row>
+    <row r="1048305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048305" s="3"/>
+    </row>
+    <row r="1048307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048307" s="3"/>
+    </row>
+    <row r="1048308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048308" s="3"/>
+    </row>
+    <row r="1048309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048309" s="3"/>
+    </row>
+    <row r="1048311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048311" s="3"/>
+    </row>
+    <row r="1048312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048312" s="3"/>
+    </row>
+    <row r="1048314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048314" s="3"/>
+    </row>
+    <row r="1048315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048315" s="3"/>
+    </row>
+    <row r="1048316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048316" s="3"/>
+    </row>
+    <row r="1048318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048318" s="3"/>
+    </row>
+    <row r="1048319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048319" s="3"/>
+    </row>
+    <row r="1048321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048321" s="3"/>
+    </row>
+    <row r="1048322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048322" s="3"/>
+    </row>
+    <row r="1048323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048323" s="3"/>
+    </row>
+    <row r="1048325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048325" s="3"/>
+    </row>
+    <row r="1048326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048326" s="3"/>
+    </row>
+    <row r="1048328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048328" s="3"/>
+    </row>
+    <row r="1048329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048329" s="3"/>
+    </row>
+    <row r="1048330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048330" s="3"/>
+    </row>
+    <row r="1048332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048332" s="3"/>
+    </row>
+    <row r="1048333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048333" s="3"/>
+    </row>
+    <row r="1048335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048335" s="3"/>
+    </row>
+    <row r="1048336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048336" s="3"/>
+    </row>
+    <row r="1048337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048337" s="3"/>
+    </row>
+    <row r="1048348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048348" s="3"/>
+    </row>
+    <row r="1048349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048349" s="3"/>
+    </row>
+    <row r="1048351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048351" s="3"/>
+    </row>
+    <row r="1048352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048352" s="3"/>
+    </row>
+    <row r="1048353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048353" s="3"/>
+    </row>
+    <row r="1048355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048355" s="3"/>
+    </row>
+    <row r="1048356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048356" s="3"/>
+    </row>
+    <row r="1048358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048358" s="3"/>
+    </row>
+    <row r="1048359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048359" s="3"/>
+    </row>
+    <row r="1048360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048360" s="3"/>
+    </row>
+    <row r="1048362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048362" s="3"/>
+    </row>
+    <row r="1048363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048363" s="3"/>
+    </row>
+    <row r="1048365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048365" s="3"/>
+    </row>
+    <row r="1048366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048366" s="3"/>
+    </row>
+    <row r="1048367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048367" s="3"/>
+    </row>
+    <row r="1048369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048369" s="3"/>
+    </row>
+    <row r="1048370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048370" s="3"/>
+    </row>
+    <row r="1048372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048372" s="3"/>
+    </row>
+    <row r="1048373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048373" s="3"/>
+    </row>
+    <row r="1048374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048374" s="3"/>
+    </row>
+    <row r="1048376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048376" s="3"/>
+    </row>
+    <row r="1048377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048377" s="3"/>
+    </row>
+    <row r="1048379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048379" s="3"/>
+    </row>
+    <row r="1048380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048380" s="3"/>
+    </row>
+    <row r="1048381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048381" s="3"/>
+    </row>
+    <row r="1048387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048387" s="3"/>
+    </row>
+    <row r="1048388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048388" s="3"/>
+    </row>
+    <row r="1048390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048390" s="3"/>
+    </row>
+    <row r="1048391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048391" s="3"/>
+    </row>
+    <row r="1048393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048393" s="3"/>
+    </row>
+    <row r="1048394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048394" s="3"/>
+    </row>
+    <row r="1048395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048395" s="3"/>
+    </row>
+    <row r="1048401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048401" s="3"/>
+    </row>
+    <row r="1048402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048402" s="3"/>
+    </row>
+    <row r="1048404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048404" s="3"/>
+    </row>
+    <row r="1048405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048405" s="3"/>
+    </row>
+    <row r="1048407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048407" s="3"/>
+    </row>
+    <row r="1048408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048408" s="3"/>
+    </row>
+    <row r="1048409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048409" s="3"/>
+    </row>
+    <row r="1048411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048411" s="3"/>
+    </row>
+    <row r="1048412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048412" s="3"/>
+    </row>
+    <row r="1048414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048414" s="3"/>
+    </row>
+    <row r="1048419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048419" s="3"/>
+    </row>
+    <row r="1048421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048421" s="3"/>
+    </row>
+    <row r="1048422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048422" s="3"/>
+    </row>
+    <row r="1048423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048423" s="3"/>
+    </row>
+    <row r="1048425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048425" s="3"/>
+    </row>
+    <row r="1048426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048426" s="3"/>
+    </row>
+    <row r="1048428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048428" s="3"/>
+    </row>
+    <row r="1048433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048433" s="3"/>
+    </row>
+    <row r="1048435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048435" s="3"/>
+    </row>
+    <row r="1048436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048436" s="3"/>
+    </row>
+    <row r="1048437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048437" s="3"/>
+    </row>
+    <row r="1048439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048439" s="3"/>
+    </row>
+    <row r="1048440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048440" s="3"/>
+    </row>
+    <row r="1048442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048442" s="3"/>
+    </row>
+    <row r="1048443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048443" s="3"/>
+    </row>
+    <row r="1048444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048444" s="3"/>
+    </row>
+    <row r="1048450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048450" s="3"/>
+    </row>
+    <row r="1048451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048451" s="3"/>
+    </row>
+    <row r="1048453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048453" s="3"/>
+    </row>
+    <row r="1048454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048454" s="3"/>
+    </row>
+    <row r="1048456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048456" s="3"/>
+    </row>
+    <row r="1048457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048457" s="3"/>
+    </row>
+    <row r="1048458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048458" s="3"/>
+    </row>
+    <row r="1048464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048464" s="3"/>
+    </row>
+    <row r="1048465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048465" s="3"/>
+    </row>
+    <row r="1048467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048467" s="3"/>
+    </row>
+    <row r="1048468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048468" s="3"/>
+    </row>
+    <row r="1048470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048470" s="3"/>
+    </row>
+    <row r="1048471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048471" s="3"/>
+    </row>
+    <row r="1048472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048472" s="3"/>
+    </row>
+    <row r="1048474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048474" s="3"/>
+    </row>
+    <row r="1048475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048475" s="3"/>
+    </row>
+    <row r="1048477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048477" s="3"/>
+    </row>
+    <row r="1048482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048482" s="3"/>
+    </row>
+    <row r="1048484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048484" s="3"/>
+    </row>
+    <row r="1048485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048485" s="3"/>
+    </row>
+    <row r="1048486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048486" s="3"/>
+    </row>
+    <row r="1048488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048488" s="3"/>
+    </row>
+    <row r="1048489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048489" s="3"/>
+    </row>
+    <row r="1048493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048493" s="3"/>
+    </row>
+    <row r="1048495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048495" s="3"/>
+    </row>
+    <row r="1048496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048496" s="3"/>
+    </row>
+    <row r="1048498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048498" s="3"/>
+    </row>
+    <row r="1048499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048499" s="3"/>
+    </row>
+    <row r="1048503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048503" s="3"/>
+    </row>
+    <row r="1048504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048504" s="3"/>
+    </row>
+    <row r="1048506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048506" s="3"/>
+    </row>
+    <row r="1048507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048507" s="3"/>
+    </row>
+    <row r="1048511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048511" s="3"/>
+    </row>
+    <row r="1048513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048513" s="3"/>
+    </row>
+    <row r="1048514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048514" s="3"/>
+    </row>
+    <row r="1048515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048515" s="3"/>
+    </row>
+    <row r="1048530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048530" s="3"/>
+    </row>
+    <row r="1048532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048532" s="3"/>
+    </row>
+    <row r="1048533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048533" s="3"/>
+    </row>
+    <row r="1048535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048535" s="3"/>
+    </row>
+    <row r="1048536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048536" s="3"/>
+    </row>
+    <row r="1048537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048537" s="3"/>
+    </row>
+    <row r="1048539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048539" s="3"/>
+    </row>
+    <row r="1048540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048540" s="3"/>
+    </row>
+    <row r="1048546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048546" s="3"/>
+    </row>
+    <row r="1048547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048547" s="3"/>
+    </row>
+    <row r="1048549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048549" s="3"/>
+    </row>
+    <row r="1048550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048550" s="3"/>
+    </row>
+    <row r="1048551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048551" s="3"/>
+    </row>
+    <row r="1048553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048553" s="3"/>
+    </row>
+    <row r="1048554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048554" s="3"/>
+    </row>
+    <row r="1048556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048556" s="3"/>
+    </row>
+    <row r="1048560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048560" s="3"/>
+    </row>
+    <row r="1048561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048561" s="3"/>
+    </row>
+    <row r="1048562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048562" s="3"/>
+    </row>
+    <row r="1048563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048563" s="3"/>
+    </row>
+    <row r="1048564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048564" s="3"/>
+    </row>
+    <row r="1048565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048565" s="3"/>
+    </row>
+    <row r="1048567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048567" s="3"/>
+    </row>
+    <row r="1048568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048568" s="3"/>
+    </row>
+    <row r="1048570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048570" s="3"/>
+    </row>
+    <row r="1048571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048571" s="3"/>
+    </row>
+    <row r="1048572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048572" s="3"/>
+    </row>
+    <row r="1048574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048574" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>